--- a/docs/第一次迭代/Do One/import data template/学院信息.xlsx
+++ b/docs/第一次迭代/Do One/import data template/学院信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40133\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\ohmsubsystem\docs\第一次迭代\Do One\import data template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD91DEAE-6FED-4E7E-8C91-1218157C27B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10DCCB-8AF9-45F2-ACBF-D51BA13250CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DEA97037-DB8A-4B93-B007-85A5AF85F2FA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>学院名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>体育学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学院导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B842A06D-5A2A-4E3D-8414-4181DBD3559B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,6 +499,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
